--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_109.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_109.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,278 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[('0:00:13.080000', '0:00:19.460000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:01:45.400000', '0:02:03.260000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[('0:00:00.300000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:14.520000', '0:00:29.100000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -753,452 +768,420 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:00:01.420000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>schubert-winterreise_137</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(31.6, 33.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.32, 46.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
